--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1807701.332738791</v>
+        <v>1805449.253027584</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283166</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>9.09919344118153</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>78.96122915361011</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.3061823306003</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>125.8006610335173</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>376.2274714067175</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>251.9459179647289</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1054,19 +1054,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>135.8241034250917</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>181.4487096095775</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358577</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>68.11015198958181</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>156.0100170058545</v>
       </c>
       <c r="T10" t="n">
-        <v>105.1018445532432</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187888</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377112</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>61.66004604095136</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016374</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365897</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659138015</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.137643323821</v>
       </c>
       <c r="W16" t="n">
-        <v>86.60069024005182</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507472</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.006892987834567</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238239</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370808</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520906</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583173</v>
       </c>
       <c r="V28" t="n">
-        <v>48.4745767553171</v>
+        <v>252.1376433238267</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.14989839348875</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>42.71572132711287</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>18.7084378797731</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746454</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833906</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>65.44930784064623</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514051</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667506</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2014.778044008243</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1645.815527067831</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1287.549828461081</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>901.7615758628365</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>490.7756710732289</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>75.70322091822538</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269323</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008243</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2014.778044008243</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,13 +4410,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4431,16 +4431,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4452,7 +4452,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>1229.60396501716</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845645</v>
+        <v>940.1867949801995</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.203338947628</v>
+        <v>712.1972440821821</v>
       </c>
       <c r="Y4" t="n">
-        <v>1155.203338947628</v>
+        <v>712.1972440821821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1501.213961756483</v>
+        <v>1935.366530930991</v>
       </c>
       <c r="C5" t="n">
-        <v>1132.251444816072</v>
+        <v>1566.404013990579</v>
       </c>
       <c r="D5" t="n">
-        <v>773.9857462093212</v>
+        <v>1208.138315383829</v>
       </c>
       <c r="E5" t="n">
-        <v>773.9857462093212</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>362.9998414197136</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796417</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820605</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064583</v>
@@ -4647,13 +4647,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1700.268026780272</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1478.501411349798</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1478.501411349798</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.501411349798</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,10 +4820,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4835,19 +4835,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="T10" t="n">
-        <v>1539.614727326137</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="U10" t="n">
-        <v>1250.51186045178</v>
+        <v>1390.775348208175</v>
       </c>
       <c r="V10" t="n">
-        <v>1250.51186045178</v>
+        <v>1136.090860002288</v>
       </c>
       <c r="W10" t="n">
-        <v>1250.51186045178</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075818</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273916</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>372.4964262156746</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>867.8220324314337</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1465.200520057986</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327666</v>
+        <v>734.6461798836104</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048597</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925239</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038347</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487576</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510517</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854715</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648828</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704554</v>
+        <v>1144.284195611868</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806536</v>
+        <v>916.2946447138502</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630063</v>
+        <v>916.2946447138502</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>692.9625378792912</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.841029837709</v>
+        <v>803.2707707770398</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>634.334587849133</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648827</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.271624709496</v>
+        <v>1433.701365648827</v>
       </c>
       <c r="X16" t="n">
-        <v>1185.282073811479</v>
+        <v>1205.71181475081</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.4894946679487</v>
+        <v>984.9192356072796</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5531,34 +5531,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400764</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>264.0500279773693</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611864</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138463</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703162</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004714</v>
@@ -5738,64 +5738,64 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>692.9625378792912</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>960.4603932171037</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>719.5738700011939</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C28" t="n">
-        <v>550.637687073287</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.55755772433</v>
       </c>
       <c r="V28" t="n">
-        <v>1639.421634909942</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1350.004464872981</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>1122.014913974964</v>
+        <v>963.466348583466</v>
       </c>
       <c r="Y28" t="n">
-        <v>901.2223348314336</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>632.7243904253733</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253733</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6689,37 +6689,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,19 +6835,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998291</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998291</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998291</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>194.8007783998291</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075781</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>591.7265122257537</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>443.8134186433606</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>443.8134186433606</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7339,7 +7339,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7576,7 +7576,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,13 +7585,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487568</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7813,7 +7813,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7822,13 +7822,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487568</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426091663</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>84.77391660561781</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.88187642683221</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>199.9223080965392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788059</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>142.4141550350967</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.7240910182291</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092683</v>
       </c>
       <c r="V28" t="n">
-        <v>203.6630665685109</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>117.6820817884485</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856421</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>121.5862749664508</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.5878994176234</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.3204386478848</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012316</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>220.7351665485979</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.43691740068968</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.3683537222866</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369785</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369785</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369784</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369784</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369784</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583916</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583916</v>
-      </c>
       <c r="E2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26436,7 +26436,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26476,16 +26476,16 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-973439.5026187513</v>
+        <v>-973439.5026187515</v>
       </c>
       <c r="C6" t="n">
-        <v>355305.2431088411</v>
+        <v>355305.2431088412</v>
       </c>
       <c r="D6" t="n">
-        <v>355305.2431088412</v>
+        <v>355305.2431088409</v>
       </c>
       <c r="E6" t="n">
-        <v>106511.9869426856</v>
+        <v>106477.2490172498</v>
       </c>
       <c r="F6" t="n">
-        <v>431924.4487500411</v>
+        <v>431889.710824606</v>
       </c>
       <c r="G6" t="n">
-        <v>431924.4487500409</v>
+        <v>431889.7108246053</v>
       </c>
       <c r="H6" t="n">
-        <v>431924.448750041</v>
+        <v>431889.7108246056</v>
       </c>
       <c r="I6" t="n">
-        <v>431924.4487500411</v>
+        <v>431889.7108246054</v>
       </c>
       <c r="J6" t="n">
-        <v>214393.246352764</v>
+        <v>214358.5084273282</v>
       </c>
       <c r="K6" t="n">
-        <v>431924.4487500408</v>
+        <v>431889.7108246055</v>
       </c>
       <c r="L6" t="n">
-        <v>431924.4487500408</v>
+        <v>431889.7108246052</v>
       </c>
       <c r="M6" t="n">
-        <v>346869.4208145289</v>
+        <v>346834.6828890935</v>
       </c>
       <c r="N6" t="n">
-        <v>431924.4487500414</v>
+        <v>431889.7108246052</v>
       </c>
       <c r="O6" t="n">
-        <v>431924.4487500409</v>
+        <v>431889.7108246053</v>
       </c>
       <c r="P6" t="n">
-        <v>431924.448750041</v>
+        <v>431889.7108246054</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973562</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>285.5085709461389</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>307.2767095024435</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.52579785133705</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>126.3369822903107</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>5.70289866554424</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>158.9758076887245</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>53.94492190635023</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762287</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>259.6421064805531</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>33.75900832558739</v>
       </c>
       <c r="T10" t="n">
-        <v>114.447104722926</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28099,10 +28099,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>7.164165557090503e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.414833124131992e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>6.97563488453549e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
     </row>
     <row r="23">
@@ -29490,7 +29490,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685818</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418562</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>687.0167715190029</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018706</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>512.9101366533173</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,10 +32336,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32558,16 +32558,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>687.0167715190029</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32576,7 +32576,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,34 +33257,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33494,7 +33494,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817547</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,37 +33731,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>510.867923325071</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,34 +33971,34 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884141</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34211,31 +34211,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118732</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34399,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,37 +34442,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>391.6051949514468</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34539,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.5512458942228</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789222</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>544.4205270745584</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875403</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,25 +35878,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>370.3138922088728</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>544.4205270745584</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281451</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367742</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>379.5262112417378</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.7852262023926</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>285.360777931999</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>253.0508151715727</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38184,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
